--- a/public_html/time/GiaTuongTran_timesheet.xlsx
+++ b/public_html/time/GiaTuongTran_timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9B2DAA-7C6E-44F6-B71F-0B6574FC298A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF173C80-113E-43B5-8579-2F8FEEF42164}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="748" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="748" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="17" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="48">
   <si>
     <t>Status</t>
   </si>
@@ -205,6 +205,69 @@
   </si>
   <si>
     <t>Review Final Document</t>
+  </si>
+  <si>
+    <r>
+      <t>PRJ666 - Timesheet - Group __</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_____</t>
+    </r>
+  </si>
+  <si>
+    <t>Learn Data Flow Diagram</t>
+  </si>
+  <si>
+    <t>Draw Data Flow Diagram: read quote, delete quote, report quote, rate quote</t>
+  </si>
+  <si>
+    <t>Create Business Rules</t>
+  </si>
+  <si>
+    <t>Update Final Document Section 2.2 Main Page</t>
+  </si>
+  <si>
+    <r>
+      <t>PRJ666 - Timesheet - Group ___</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>____</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Use Case Specifications</t>
   </si>
 </sst>
 </file>
@@ -6226,7 +6289,7 @@
       </c>
       <c r="F14" s="41">
         <f>'Jan-21'!F33+'Jan-28'!F33+'Feb-04'!F33+'Feb-11'!F33+'Feb-17'!F33+'Feb-25'!F33+'Mar-11'!F33+'Mar-18'!F33+'Mar-25'!F33+'Apr-01'!F33+'Apr-08'!F33</f>
-        <v>5.3333333333333339</v>
+        <v>11.833333333333334</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -7550,7 +7613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1542098-B847-4140-B316-D011494EF2C4}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -8546,7 +8609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D2BB42-04B7-4484-B248-A12100F87CAA}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8658,8 +8723,8 @@
     <row r="5" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
+      <c r="C5" s="62" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -8708,7 +8773,9 @@
       <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="55">
+        <v>43507</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="22"/>
@@ -8756,7 +8823,9 @@
       <c r="C9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="56" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="22"/>
@@ -8867,11 +8936,17 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
+      <c r="C14" s="61">
+        <v>43505</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3">
+        <v>60</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8885,10 +8960,18 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="61">
+        <v>43506</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3">
+        <v>180</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -8901,10 +8984,18 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="61">
+        <v>43506</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3">
+        <v>60</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -8917,10 +9008,18 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="61">
+        <v>43506</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3">
+        <v>30</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -9181,7 +9280,7 @@
       </c>
       <c r="F33" s="41">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -9504,7 +9603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85783FEF-7FC0-4464-8F56-5FBF81797002}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9616,8 +9717,8 @@
     <row r="5" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
+      <c r="C5" s="62" t="s">
+        <v>46</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -9666,7 +9767,9 @@
       <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="55">
+        <v>43514</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="22"/>
@@ -9714,7 +9817,9 @@
       <c r="C9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="56" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="22"/>
@@ -9825,11 +9930,17 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
+      <c r="C14" s="61">
+        <v>43511</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -9843,10 +9954,18 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="61">
+        <v>43513</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3">
+        <v>15</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10139,7 +10258,7 @@
       </c>
       <c r="F33" s="41">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>

--- a/public_html/time/GiaTuongTran_timesheet.xlsx
+++ b/public_html/time/GiaTuongTran_timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF173C80-113E-43B5-8579-2F8FEEF42164}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46685F13-64B2-45C6-B237-B990864EEB99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="748" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="748" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="17" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="50">
   <si>
     <t>Status</t>
   </si>
@@ -268,6 +268,33 @@
   </si>
   <si>
     <t>Create Use Case Specifications</t>
+  </si>
+  <si>
+    <r>
+      <t>PRJ666 - Timesheet - Group __</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_____</t>
+    </r>
+  </si>
+  <si>
+    <t>Review Use Case Specification and Use Case Diagram</t>
   </si>
 </sst>
 </file>
@@ -6289,7 +6316,7 @@
       </c>
       <c r="F14" s="41">
         <f>'Jan-21'!F33+'Jan-28'!F33+'Feb-04'!F33+'Feb-11'!F33+'Feb-17'!F33+'Feb-25'!F33+'Mar-11'!F33+'Mar-18'!F33+'Mar-25'!F33+'Apr-01'!F33+'Apr-08'!F33</f>
-        <v>11.833333333333334</v>
+        <v>12.833333333333334</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -9603,7 +9630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85783FEF-7FC0-4464-8F56-5FBF81797002}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -10581,7 +10608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BC924B-9BED-42FD-84DE-FE0634E6301A}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10693,8 +10722,8 @@
     <row r="5" spans="1:21" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
+      <c r="C5" s="62" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -10743,7 +10772,9 @@
       <c r="C7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="55">
+        <v>43522</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="22"/>
@@ -10791,7 +10822,9 @@
       <c r="C9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="56" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="22"/>
@@ -10902,11 +10935,17 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
+      <c r="C14" s="61">
+        <v>43518</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3">
+        <v>60</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -11216,7 +11255,7 @@
       </c>
       <c r="F33" s="41">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
